--- a/team_specific_matrix/IUPUI_A.xlsx
+++ b/team_specific_matrix/IUPUI_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.205761316872428</v>
+        <v>0.1972789115646258</v>
       </c>
       <c r="C2">
-        <v>0.5061728395061729</v>
+        <v>0.5272108843537415</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02469135802469136</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.00411522633744856</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="P2">
-        <v>0.1481481481481481</v>
+        <v>0.1394557823129252</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1111111111111111</v>
+        <v>0.1054421768707483</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008</v>
+        <v>0.006451612903225806</v>
       </c>
       <c r="C3">
-        <v>0.024</v>
+        <v>0.01935483870967742</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.016</v>
+        <v>0.01290322580645161</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.824</v>
+        <v>0.8129032258064516</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.128</v>
+        <v>0.1483870967741935</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06451612903225806</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7096774193548387</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2258064516129032</v>
+        <v>0.2564102564102564</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07262569832402235</v>
+        <v>0.06637168141592921</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02793296089385475</v>
+        <v>0.02654867256637168</v>
       </c>
       <c r="E6">
-        <v>0.00558659217877095</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="F6">
-        <v>0.03910614525139665</v>
+        <v>0.04424778761061947</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2346368715083799</v>
+        <v>0.2433628318584071</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0223463687150838</v>
+        <v>0.03539823008849557</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1340782122905028</v>
+        <v>0.1504424778761062</v>
       </c>
       <c r="R6">
-        <v>0.0335195530726257</v>
+        <v>0.02654867256637168</v>
       </c>
       <c r="S6">
-        <v>0.4301675977653631</v>
+        <v>0.4026548672566372</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1324503311258278</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.006622516556291391</v>
+        <v>0.01025641025641026</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07947019867549669</v>
+        <v>0.07179487179487179</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1589403973509934</v>
+        <v>0.1487179487179487</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.04635761589403974</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1456953642384106</v>
+        <v>0.1487179487179487</v>
       </c>
       <c r="R7">
-        <v>0.05960264900662252</v>
+        <v>0.07179487179487179</v>
       </c>
       <c r="S7">
-        <v>0.3708609271523179</v>
+        <v>0.3897435897435897</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1323155216284987</v>
+        <v>0.1168316831683168</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01017811704834606</v>
+        <v>0.01386138613861386</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06615776081424936</v>
+        <v>0.06732673267326733</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08905852417302799</v>
+        <v>0.1128712871287129</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02798982188295165</v>
+        <v>0.02772277227722772</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1755725190839695</v>
+        <v>0.1742574257425742</v>
       </c>
       <c r="R8">
-        <v>0.05089058524173028</v>
+        <v>0.04752475247524753</v>
       </c>
       <c r="S8">
-        <v>0.4478371501272265</v>
+        <v>0.4396039603960396</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1136363636363636</v>
+        <v>0.09375</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005681818181818182</v>
+        <v>0.01339285714285714</v>
       </c>
       <c r="E9">
-        <v>0.005681818181818182</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="F9">
-        <v>0.09659090909090909</v>
+        <v>0.08482142857142858</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1363636363636364</v>
+        <v>0.1383928571428572</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02840909090909091</v>
+        <v>0.02232142857142857</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2045454545454546</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="R9">
-        <v>0.01704545454545454</v>
+        <v>0.01339285714285714</v>
       </c>
       <c r="S9">
-        <v>0.3920454545454545</v>
+        <v>0.4151785714285715</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1026252983293556</v>
+        <v>0.1073080481036078</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02386634844868735</v>
+        <v>0.01942645698427382</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07517899761336516</v>
+        <v>0.07770582793709528</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1217183770883055</v>
+        <v>0.123959296947271</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02386634844868735</v>
+        <v>0.02312673450508788</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2374701670644391</v>
+        <v>0.2395929694727104</v>
       </c>
       <c r="R10">
-        <v>0.04176610978520286</v>
+        <v>0.03700277520814061</v>
       </c>
       <c r="S10">
-        <v>0.373508353221957</v>
+        <v>0.3718778908418132</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1342592592592593</v>
+        <v>0.1444043321299639</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09722222222222222</v>
+        <v>0.08664259927797834</v>
       </c>
       <c r="K11">
-        <v>0.1851851851851852</v>
+        <v>0.1949458483754513</v>
       </c>
       <c r="L11">
-        <v>0.5509259259259259</v>
+        <v>0.5451263537906137</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03240740740740741</v>
+        <v>0.02888086642599278</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7985074626865671</v>
+        <v>0.7823529411764706</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1268656716417911</v>
+        <v>0.1352941176470588</v>
       </c>
       <c r="K12">
-        <v>0.01492537313432836</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="L12">
-        <v>0.04477611940298507</v>
+        <v>0.05294117647058823</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01492537313432836</v>
+        <v>0.01764705882352941</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6279069767441861</v>
+        <v>0.6346153846153846</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2558139534883721</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1162790697674419</v>
+        <v>0.09615384615384616</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01595744680851064</v>
+        <v>0.01260504201680672</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1595744680851064</v>
+        <v>0.1680672268907563</v>
       </c>
       <c r="I15">
-        <v>0.05319148936170213</v>
+        <v>0.04621848739495799</v>
       </c>
       <c r="J15">
-        <v>0.3404255319148936</v>
+        <v>0.3403361344537815</v>
       </c>
       <c r="K15">
-        <v>0.09042553191489362</v>
+        <v>0.07983193277310924</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02127659574468085</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="N15">
-        <v>0.005319148936170213</v>
+        <v>0.004201680672268907</v>
       </c>
       <c r="O15">
-        <v>0.06914893617021277</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2446808510638298</v>
+        <v>0.2605042016806723</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01910828025477707</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1974522292993631</v>
+        <v>0.201058201058201</v>
       </c>
       <c r="I16">
-        <v>0.09554140127388536</v>
+        <v>0.08994708994708994</v>
       </c>
       <c r="J16">
-        <v>0.3821656050955414</v>
+        <v>0.3862433862433862</v>
       </c>
       <c r="K16">
-        <v>0.09554140127388536</v>
+        <v>0.1005291005291005</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01273885350318471</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07006369426751592</v>
+        <v>0.0582010582010582</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1273885350318471</v>
+        <v>0.1322751322751323</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02840909090909091</v>
+        <v>0.02603036876355748</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2017045454545454</v>
+        <v>0.2017353579175705</v>
       </c>
       <c r="I17">
-        <v>0.1335227272727273</v>
+        <v>0.1301518438177874</v>
       </c>
       <c r="J17">
-        <v>0.3409090909090909</v>
+        <v>0.3362255965292842</v>
       </c>
       <c r="K17">
-        <v>0.08238636363636363</v>
+        <v>0.08893709327548807</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01704545454545454</v>
+        <v>0.02169197396963124</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002169197396963124</v>
       </c>
       <c r="O17">
-        <v>0.07954545454545454</v>
+        <v>0.06941431670281996</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1164772727272727</v>
+        <v>0.123644251626898</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02702702702702703</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1486486486486487</v>
+        <v>0.1460674157303371</v>
       </c>
       <c r="I18">
-        <v>0.1216216216216216</v>
+        <v>0.1460674157303371</v>
       </c>
       <c r="J18">
-        <v>0.4459459459459459</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="K18">
-        <v>0.06756756756756757</v>
+        <v>0.05617977528089887</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01351351351351351</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04054054054054054</v>
+        <v>0.0449438202247191</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1351351351351351</v>
+        <v>0.1235955056179775</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0134020618556701</v>
+        <v>0.01443464314354451</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2556701030927835</v>
+        <v>0.2510024057738572</v>
       </c>
       <c r="I19">
-        <v>0.09690721649484536</v>
+        <v>0.09783480352846832</v>
       </c>
       <c r="J19">
-        <v>0.311340206185567</v>
+        <v>0.3135525260625501</v>
       </c>
       <c r="K19">
-        <v>0.1010309278350515</v>
+        <v>0.1018444266238974</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02989690721649485</v>
+        <v>0.0264635124298316</v>
       </c>
       <c r="N19">
-        <v>0.001030927835051546</v>
+        <v>0.0008019246190858059</v>
       </c>
       <c r="O19">
-        <v>0.07010309278350516</v>
+        <v>0.07056936647955092</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1206185567010309</v>
+        <v>0.1234963913392141</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/IUPUI_A.xlsx
+++ b/team_specific_matrix/IUPUI_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1972789115646258</v>
+        <v>0.1981707317073171</v>
       </c>
       <c r="C2">
-        <v>0.5272108843537415</v>
+        <v>0.5335365853658537</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02380952380952381</v>
+        <v>0.02134146341463415</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.006802721088435374</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="P2">
-        <v>0.1394557823129252</v>
+        <v>0.1432926829268293</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1054421768707483</v>
+        <v>0.0975609756097561</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006451612903225806</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="C3">
-        <v>0.01935483870967742</v>
+        <v>0.01714285714285714</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01290322580645161</v>
+        <v>0.01714285714285714</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8129032258064516</v>
+        <v>0.8057142857142857</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1483870967741935</v>
+        <v>0.1542857142857143</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05128205128205128</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6923076923076923</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2564102564102564</v>
+        <v>0.2444444444444444</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06637168141592921</v>
+        <v>0.06477732793522267</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02654867256637168</v>
+        <v>0.0242914979757085</v>
       </c>
       <c r="E6">
-        <v>0.004424778761061947</v>
+        <v>0.004048582995951417</v>
       </c>
       <c r="F6">
-        <v>0.04424778761061947</v>
+        <v>0.04453441295546558</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2433628318584071</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03539823008849557</v>
+        <v>0.03238866396761134</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1504424778761062</v>
+        <v>0.1376518218623482</v>
       </c>
       <c r="R6">
-        <v>0.02654867256637168</v>
+        <v>0.03238866396761134</v>
       </c>
       <c r="S6">
-        <v>0.4026548672566372</v>
+        <v>0.3967611336032389</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1230769230769231</v>
+        <v>0.1194690265486726</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01025641025641026</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07179487179487179</v>
+        <v>0.06637168141592921</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1487179487179487</v>
+        <v>0.1460176991150443</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03589743589743589</v>
+        <v>0.03097345132743363</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1487179487179487</v>
+        <v>0.1504424778761062</v>
       </c>
       <c r="R7">
-        <v>0.07179487179487179</v>
+        <v>0.06637168141592921</v>
       </c>
       <c r="S7">
-        <v>0.3897435897435897</v>
+        <v>0.411504424778761</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1168316831683168</v>
+        <v>0.1166965888689408</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01386138613861386</v>
+        <v>0.01436265709156194</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06732673267326733</v>
+        <v>0.07360861759425494</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1128712871287129</v>
+        <v>0.1095152603231598</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02772277227722772</v>
+        <v>0.02692998204667863</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1742574257425742</v>
+        <v>0.177737881508079</v>
       </c>
       <c r="R8">
-        <v>0.04752475247524753</v>
+        <v>0.0466786355475763</v>
       </c>
       <c r="S8">
-        <v>0.4396039603960396</v>
+        <v>0.4344703770197487</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09375</v>
+        <v>0.100418410041841</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01339285714285714</v>
+        <v>0.01673640167364017</v>
       </c>
       <c r="E9">
-        <v>0.004464285714285714</v>
+        <v>0.004184100418410041</v>
       </c>
       <c r="F9">
-        <v>0.08482142857142858</v>
+        <v>0.07949790794979079</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1383928571428572</v>
+        <v>0.1380753138075314</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02232142857142857</v>
+        <v>0.02092050209205021</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2142857142857143</v>
+        <v>0.2092050209205021</v>
       </c>
       <c r="R9">
-        <v>0.01339285714285714</v>
+        <v>0.01255230125523013</v>
       </c>
       <c r="S9">
-        <v>0.4151785714285715</v>
+        <v>0.4184100418410042</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1073080481036078</v>
+        <v>0.1075</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01942645698427382</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07770582793709528</v>
+        <v>0.07333333333333333</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.123959296947271</v>
+        <v>0.1225</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02312673450508788</v>
+        <v>0.02333333333333333</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2395929694727104</v>
+        <v>0.2425</v>
       </c>
       <c r="R10">
-        <v>0.03700277520814061</v>
+        <v>0.03416666666666666</v>
       </c>
       <c r="S10">
-        <v>0.3718778908418132</v>
+        <v>0.3758333333333334</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1444043321299639</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08664259927797834</v>
+        <v>0.08169934640522876</v>
       </c>
       <c r="K11">
-        <v>0.1949458483754513</v>
+        <v>0.1928104575163399</v>
       </c>
       <c r="L11">
-        <v>0.5451263537906137</v>
+        <v>0.5522875816993464</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02888086642599278</v>
+        <v>0.0261437908496732</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7823529411764706</v>
+        <v>0.7947368421052632</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1352941176470588</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="K12">
-        <v>0.01176470588235294</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="L12">
-        <v>0.05294117647058823</v>
+        <v>0.04736842105263158</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01764705882352941</v>
+        <v>0.01578947368421053</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6346153846153846</v>
+        <v>0.6875</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2692307692307692</v>
+        <v>0.21875</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.09615384615384616</v>
+        <v>0.09375</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01260504201680672</v>
+        <v>0.015625</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1680672268907563</v>
+        <v>0.171875</v>
       </c>
       <c r="I15">
-        <v>0.04621848739495799</v>
+        <v>0.05078125</v>
       </c>
       <c r="J15">
-        <v>0.3403361344537815</v>
+        <v>0.33984375</v>
       </c>
       <c r="K15">
-        <v>0.07983193277310924</v>
+        <v>0.07421875</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01680672268907563</v>
+        <v>0.01953125</v>
       </c>
       <c r="N15">
-        <v>0.004201680672268907</v>
+        <v>0.00390625</v>
       </c>
       <c r="O15">
-        <v>0.07142857142857142</v>
+        <v>0.07421875</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2605042016806723</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01587301587301587</v>
+        <v>0.01401869158878505</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.201058201058201</v>
+        <v>0.2009345794392523</v>
       </c>
       <c r="I16">
-        <v>0.08994708994708994</v>
+        <v>0.08411214953271028</v>
       </c>
       <c r="J16">
-        <v>0.3862433862433862</v>
+        <v>0.3925233644859813</v>
       </c>
       <c r="K16">
-        <v>0.1005291005291005</v>
+        <v>0.09345794392523364</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01587301587301587</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0582010582010582</v>
+        <v>0.06542056074766354</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1322751322751323</v>
+        <v>0.1308411214953271</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02603036876355748</v>
+        <v>0.02549019607843137</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2017353579175705</v>
+        <v>0.2</v>
       </c>
       <c r="I17">
-        <v>0.1301518438177874</v>
+        <v>0.1215686274509804</v>
       </c>
       <c r="J17">
-        <v>0.3362255965292842</v>
+        <v>0.3372549019607843</v>
       </c>
       <c r="K17">
-        <v>0.08893709327548807</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02169197396963124</v>
+        <v>0.02745098039215686</v>
       </c>
       <c r="N17">
-        <v>0.002169197396963124</v>
+        <v>0.00196078431372549</v>
       </c>
       <c r="O17">
-        <v>0.06941431670281996</v>
+        <v>0.06470588235294118</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.123644251626898</v>
+        <v>0.1274509803921569</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02247191011235955</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1460674157303371</v>
+        <v>0.1354166666666667</v>
       </c>
       <c r="I18">
-        <v>0.1460674157303371</v>
+        <v>0.1354166666666667</v>
       </c>
       <c r="J18">
-        <v>0.449438202247191</v>
+        <v>0.4479166666666667</v>
       </c>
       <c r="K18">
-        <v>0.05617977528089887</v>
+        <v>0.0625</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01123595505617977</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0449438202247191</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1235955056179775</v>
+        <v>0.1354166666666667</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01443464314354451</v>
+        <v>0.01448225923244026</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2510024057738572</v>
+        <v>0.2498189717595945</v>
       </c>
       <c r="I19">
-        <v>0.09783480352846832</v>
+        <v>0.09558291093410572</v>
       </c>
       <c r="J19">
-        <v>0.3135525260625501</v>
+        <v>0.3157132512671977</v>
       </c>
       <c r="K19">
-        <v>0.1018444266238974</v>
+        <v>0.1020999275887038</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0264635124298316</v>
+        <v>0.02751629254163649</v>
       </c>
       <c r="N19">
-        <v>0.0008019246190858059</v>
+        <v>0.001448225923244026</v>
       </c>
       <c r="O19">
-        <v>0.07056936647955092</v>
+        <v>0.06879073135409124</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1234963913392141</v>
+        <v>0.1245474293989862</v>
       </c>
     </row>
   </sheetData>
